--- a/data/overtime_report.xlsx
+++ b/data/overtime_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,128 +466,947 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>07:44</t>
+          <t>08:51</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21:36</t>
+          <t>20:50</t>
         </is>
       </c>
       <c r="D2" t="b">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>4.87</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45871</v>
+        <v>45840</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>09:49</t>
+          <t>08:49</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>17:56</t>
+          <t>19:27</t>
         </is>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>7.12</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45873</v>
+        <v>45841</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>08:44</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21:01</t>
+          <t>21:41</t>
         </is>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>3.28</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45874</v>
+        <v>45842</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>08:51</t>
+          <t>08:49</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21:07</t>
+          <t>18:46</t>
         </is>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>3.27</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45877</v>
+        <v>45843</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>08:43</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>19:12</t>
+          <t>18:20</t>
         </is>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1.48</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>08:51</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>21:06</t>
+        </is>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>08:47</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21:27</t>
+        </is>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>08:50</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>20:15</t>
+        </is>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>08:49</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>22:02</t>
+        </is>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>08:50</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>18:35</t>
+        </is>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45850</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>09:43</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>18:42</t>
+        </is>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>08:45</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>21:03</t>
+        </is>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>08:48</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>21:04</t>
+        </is>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>08:45</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>20:55</t>
+        </is>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>08:41</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>21:06</t>
+        </is>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>08:51</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>21:05</t>
+        </is>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45857</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>09:49</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>17:28</t>
+        </is>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>08:47</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>20:51</t>
+        </is>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>08:45</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>20:36</t>
+        </is>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>08:45</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>20:36</t>
+        </is>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>08:46</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>22:32</t>
+        </is>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4.77</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45864</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>09:49</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>17:46</t>
+        </is>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45865</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>08:47</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>20:03</t>
+        </is>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10.27</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>08:53</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>20:05</t>
+        </is>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>08:40</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>19:34</t>
+        </is>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>08:44</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>20:04</t>
+        </is>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>07:44</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>19:36</t>
+        </is>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45871</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>09:49</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>17:56</t>
+        </is>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>7.12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>08:44</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>21:01</t>
+        </is>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>08:51</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>21:07</t>
+        </is>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>08:46</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>20:42</t>
+        </is>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>08:43</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>20:13</t>
+        </is>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>08:43</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>19:12</t>
+        </is>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>45878</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>09:53</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>19:13</t>
         </is>
       </c>
-      <c r="D7" t="b">
+      <c r="D35" t="b">
         <v>0</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E35" t="n">
         <v>8.33</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>08:50</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>21:18</t>
+        </is>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>08:50</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>20:24</t>
+        </is>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>08:51</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>20:21</t>
+        </is>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>08:48</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>18:58</t>
+        </is>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45885</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>09:51</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>18:09</t>
+        </is>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>08:46</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>20:18</t>
+        </is>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>08:45</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>20:22</t>
+        </is>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>08:50</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>19:53</t>
+        </is>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>08:46</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>20:02</t>
+        </is>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>08:49</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>19:01</t>
+        </is>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45892</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>09:49</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>17:56</t>
+        </is>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>7.12</v>
       </c>
     </row>
   </sheetData>
